--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd274-Pdcd1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H2">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I2">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J2">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N2">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O2">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P2">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q2">
-        <v>0.6887215210719999</v>
+        <v>0.2630547126044444</v>
       </c>
       <c r="R2">
-        <v>6.198493689647999</v>
+        <v>2.36749241344</v>
       </c>
       <c r="S2">
-        <v>0.0250877137217531</v>
+        <v>0.07593253777050972</v>
       </c>
       <c r="T2">
-        <v>0.0250877137217531</v>
+        <v>0.07593253777050972</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.047316333333333</v>
+        <v>5.004338333333333</v>
       </c>
       <c r="H3">
-        <v>24.141949</v>
+        <v>15.013015</v>
       </c>
       <c r="I3">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832523</v>
       </c>
       <c r="J3">
-        <v>0.1063829007179504</v>
+        <v>0.09842252509832525</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N3">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O3">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P3">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q3">
-        <v>2.231759556284555</v>
+        <v>0.07791254351166665</v>
       </c>
       <c r="R3">
-        <v>20.085836006561</v>
+        <v>0.701212891605</v>
       </c>
       <c r="S3">
-        <v>0.08129518699619727</v>
+        <v>0.02248998732781553</v>
       </c>
       <c r="T3">
-        <v>0.08129518699619727</v>
+        <v>0.02248998732781553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>3.583823</v>
       </c>
       <c r="I4">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J4">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N4">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O4">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P4">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q4">
-        <v>0.102239302544</v>
+        <v>0.06279495020088889</v>
       </c>
       <c r="R4">
-        <v>0.9201537228959999</v>
+        <v>0.565154551808</v>
       </c>
       <c r="S4">
-        <v>0.003724219840470808</v>
+        <v>0.01812619086241647</v>
       </c>
       <c r="T4">
-        <v>0.003724219840470808</v>
+        <v>0.01812619086241648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>3.583823</v>
       </c>
       <c r="I5">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124971</v>
       </c>
       <c r="J5">
-        <v>0.01579232424025529</v>
+        <v>0.02349487489124972</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N5">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O5">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P5">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q5">
-        <v>0.3313001459941111</v>
+        <v>0.01859884676233333</v>
       </c>
       <c r="R5">
-        <v>2.981701313947</v>
+        <v>0.167389620861</v>
       </c>
       <c r="S5">
-        <v>0.01206810439978449</v>
+        <v>0.005368684028833237</v>
       </c>
       <c r="T5">
-        <v>0.01206810439978449</v>
+        <v>0.005368684028833238</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H6">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I6">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J6">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N6">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O6">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P6">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q6">
-        <v>1.293960357568</v>
+        <v>0.3945748586951111</v>
       </c>
       <c r="R6">
-        <v>11.645643218112</v>
+        <v>3.551173728256</v>
       </c>
       <c r="S6">
-        <v>0.04713444552659708</v>
+        <v>0.1138967253789995</v>
       </c>
       <c r="T6">
-        <v>0.04713444552659708</v>
+        <v>0.1138967253789996</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.11918533333333</v>
+        <v>7.506370333333334</v>
       </c>
       <c r="H7">
-        <v>45.357556</v>
+        <v>22.519111</v>
       </c>
       <c r="I7">
-        <v>0.1998707054164051</v>
+        <v>0.1476310899302686</v>
       </c>
       <c r="J7">
-        <v>0.199870705416405</v>
+        <v>0.1476310899302687</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N7">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O7">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P7">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q7">
-        <v>4.192998628764888</v>
+        <v>0.1168666797196667</v>
       </c>
       <c r="R7">
-        <v>37.736987658884</v>
+        <v>1.051800117477</v>
       </c>
       <c r="S7">
-        <v>0.152736259889808</v>
+        <v>0.0337343645512691</v>
       </c>
       <c r="T7">
-        <v>0.152736259889808</v>
+        <v>0.03373436455126911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H8">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I8">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J8">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N8">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O8">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P8">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q8">
-        <v>0.03351098576</v>
+        <v>0.011028154368</v>
       </c>
       <c r="R8">
-        <v>0.30159887184</v>
+        <v>0.09925338931200002</v>
       </c>
       <c r="S8">
-        <v>0.001220687885536156</v>
+        <v>0.003183352009915764</v>
       </c>
       <c r="T8">
-        <v>0.001220687885536156</v>
+        <v>0.003183352009915764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3915566666666667</v>
+        <v>0.209799</v>
       </c>
       <c r="H9">
-        <v>1.17467</v>
+        <v>0.6293970000000001</v>
       </c>
       <c r="I9">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="J9">
-        <v>0.005176251593703341</v>
+        <v>0.004126209294356305</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N9">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O9">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P9">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q9">
-        <v>0.1085902798477778</v>
+        <v>0.003266360631</v>
       </c>
       <c r="R9">
-        <v>0.97731251863</v>
+        <v>0.029397245679</v>
       </c>
       <c r="S9">
-        <v>0.003955563708167185</v>
+        <v>0.0009428572844405412</v>
       </c>
       <c r="T9">
-        <v>0.003955563708167185</v>
+        <v>0.0009428572844405413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H10">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I10">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J10">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N10">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O10">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P10">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q10">
-        <v>2.945671078208</v>
+        <v>1.650681951345778</v>
       </c>
       <c r="R10">
-        <v>26.511039703872</v>
+        <v>14.856137562112</v>
       </c>
       <c r="S10">
-        <v>0.1073004842559645</v>
+        <v>0.4764806088311237</v>
       </c>
       <c r="T10">
-        <v>0.1073004842559645</v>
+        <v>0.4764806088311238</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.41847866666667</v>
+        <v>31.40248233333334</v>
       </c>
       <c r="H11">
-        <v>103.255436</v>
+        <v>94.207447</v>
       </c>
       <c r="I11">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953491</v>
       </c>
       <c r="J11">
-        <v>0.455001077028896</v>
+        <v>0.6176064445953492</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N11">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O11">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P11">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q11">
-        <v>9.545265215800443</v>
+        <v>0.4889052474476667</v>
       </c>
       <c r="R11">
-        <v>85.907386942204</v>
+        <v>4.400147227029</v>
       </c>
       <c r="S11">
-        <v>0.3477005927729314</v>
+        <v>0.1411258357642254</v>
       </c>
       <c r="T11">
-        <v>0.3477005927729314</v>
+        <v>0.1411258357642254</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H12">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I12">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J12">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.08558399999999999</v>
+        <v>0.05256533333333333</v>
       </c>
       <c r="N12">
-        <v>0.256752</v>
+        <v>0.157696</v>
       </c>
       <c r="O12">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952154</v>
       </c>
       <c r="P12">
-        <v>0.2358246819032258</v>
+        <v>0.7714955259952153</v>
       </c>
       <c r="Q12">
-        <v>1.409883799984</v>
+        <v>0.29057380352</v>
       </c>
       <c r="R12">
-        <v>12.688954199856</v>
+        <v>2.61516423168</v>
       </c>
       <c r="S12">
-        <v>0.05135713067290414</v>
+        <v>0.0838761111422502</v>
       </c>
       <c r="T12">
-        <v>0.05135713067290414</v>
+        <v>0.08387611114225021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.47368433333333</v>
+        <v>5.52786</v>
       </c>
       <c r="H13">
-        <v>49.421053</v>
+        <v>16.58358</v>
       </c>
       <c r="I13">
-        <v>0.21777674100279</v>
+        <v>0.108718856190451</v>
       </c>
       <c r="J13">
-        <v>0.2177767410027899</v>
+        <v>0.1087188561904511</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2773296666666666</v>
+        <v>0.015569</v>
       </c>
       <c r="N13">
-        <v>0.831989</v>
+        <v>0.046707</v>
       </c>
       <c r="O13">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="P13">
-        <v>0.7641753180967742</v>
+        <v>0.2285044740047847</v>
       </c>
       <c r="Q13">
-        <v>4.568641384935222</v>
+        <v>0.08606325233999999</v>
       </c>
       <c r="R13">
-        <v>41.117772464417</v>
+        <v>0.7745692710599998</v>
       </c>
       <c r="S13">
-        <v>0.1664196103298858</v>
+        <v>0.02484274504820084</v>
       </c>
       <c r="T13">
-        <v>0.1664196103298858</v>
+        <v>0.02484274504820085</v>
       </c>
     </row>
   </sheetData>
